--- a/data/trans_bre/P21_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.127615310003311</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3575438511767975</v>
+        <v>0.3575438511767892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3549759340332039</v>
@@ -649,7 +649,7 @@
         <v>0.4760820619505467</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0150029611751388</v>
+        <v>0.01500296117513845</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4879179053560744</v>
+        <v>0.007675107934671703</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.042168933004509</v>
+        <v>6.603043650691546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.186202209866948</v>
+        <v>1.208859533518226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.551115840769704</v>
+        <v>-4.679277325701304</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02406000151906824</v>
+        <v>0.002484667255906172</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.49255183014738</v>
+        <v>0.4487000909579867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05313071089814064</v>
+        <v>0.05753400708245613</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1684008962196788</v>
+        <v>-0.173273210280234</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.26543955959987</v>
+        <v>12.26088557661198</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.44267004475719</v>
+        <v>19.0416104467232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.43514260308761</v>
+        <v>13.14880795263969</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.427550625309231</v>
+        <v>5.565416985166893</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8052679640918642</v>
+        <v>0.8565257422457562</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.916303690004644</v>
+        <v>1.859472124205098</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.086916820586452</v>
+        <v>1.057173417268717</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2493512087809746</v>
+        <v>0.2687198552590575</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.503289747436678</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.834856131084907</v>
+        <v>8.834856131084912</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3465594581183701</v>
@@ -749,7 +749,7 @@
         <v>0.5115643751992152</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5192155822557531</v>
+        <v>0.5192155822557537</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1980447574886664</v>
+        <v>0.2912586103822189</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.86480765176204</v>
+        <v>2.327213297108061</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.682534025704488</v>
+        <v>1.846264052872095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.449293726547562</v>
+        <v>3.789447033407393</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.006687535092347158</v>
+        <v>0.01547346624912718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1300780829062102</v>
+        <v>0.1122491382743311</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.100185612842825</v>
+        <v>0.09903338161537795</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1735411429975025</v>
+        <v>0.1832923148603025</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.4266036089181</v>
+        <v>12.44357460868329</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.03130539582425</v>
+        <v>15.19197562772707</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.14959797248344</v>
+        <v>13.83584523654156</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.33906293153722</v>
+        <v>14.52522138248808</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.826259780172919</v>
+        <v>0.8074251999082878</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.048954745907237</v>
+        <v>1.083365674098218</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.160513721656352</v>
+        <v>1.160599621890989</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9996170695800105</v>
+        <v>1.001991789326314</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.781942063616096</v>
+        <v>3.199210500881899</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.36058205178431</v>
+        <v>-10.31933150704292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.239921043724546</v>
+        <v>-5.87263400782348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.382931237658216</v>
+        <v>4.411279729555304</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1365125140171433</v>
+        <v>0.1551712718139038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3878384064140646</v>
+        <v>-0.3766436240111405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.28224266279628</v>
+        <v>-0.3092097678574128</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1808048670733351</v>
+        <v>0.1916335509977468</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.51770770890564</v>
+        <v>17.81345831418482</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.743391107999344</v>
+        <v>2.049140468404092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.709179795890579</v>
+        <v>8.977868178144705</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.27024594354898</v>
+        <v>18.02229456268121</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.101776779747897</v>
+        <v>1.115465697791458</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1242422699887992</v>
+        <v>0.0936758959154415</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5596501538919026</v>
+        <v>0.5899743259248837</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.018602494662834</v>
+        <v>1.013179001608269</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.674975076941903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.350164511752005</v>
+        <v>6.35016451175201</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4518528698306855</v>
@@ -949,7 +949,7 @@
         <v>0.4585398135805011</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2869127864629097</v>
+        <v>0.2869127864629099</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.387721942988857</v>
+        <v>4.177420857708233</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.893031052096328</v>
+        <v>2.716257468227254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.172148912945402</v>
+        <v>3.857393079910734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.936793494199094</v>
+        <v>2.492375115854457</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2224216284500447</v>
+        <v>0.2087804453111027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1227300001529505</v>
+        <v>0.1070626307451447</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2315568098862561</v>
+        <v>0.2087009714525638</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07504232687434176</v>
+        <v>0.1034844767220344</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.15145427337381</v>
+        <v>11.89302425554626</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.02386298981949</v>
+        <v>11.20011664009927</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.46165368699559</v>
+        <v>11.55314964333076</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.754968870181333</v>
+        <v>10.3575673510656</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7227917877527027</v>
+        <v>0.7107463216450705</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5334717915454149</v>
+        <v>0.555281772470812</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.749487697236335</v>
+        <v>0.7651102998916394</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4722203805776468</v>
+        <v>0.5147749836424934</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.337684396259264</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.766080869163009</v>
+        <v>4.766080869163014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7264107923134709</v>
@@ -1049,7 +1049,7 @@
         <v>0.2677235492147133</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2475703825270819</v>
+        <v>0.2475703825270822</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.399110421257717</v>
+        <v>4.471078470897287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.947055242100094</v>
+        <v>4.026384537265669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3101279304376531</v>
+        <v>0.2707377993528626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2994465066702102</v>
+        <v>0.2509971294087764</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2531882490569437</v>
+        <v>0.2517850457080704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1515395403102829</v>
+        <v>0.1760710811633181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01720188836951909</v>
+        <v>0.01584723794604445</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.01319609840169861</v>
+        <v>0.002692562513814966</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.10579788513743</v>
+        <v>14.80947685078761</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.13674805313592</v>
+        <v>13.67291002903907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.844425514728076</v>
+        <v>8.701496221172048</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.807187603217722</v>
+        <v>8.76256015162914</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.333234399789885</v>
+        <v>1.311473876059464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7423111650990801</v>
+        <v>0.7260734238913867</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6491672034662286</v>
+        <v>0.6075028504056915</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5412221942404455</v>
+        <v>0.5288305927629685</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-1.812168924824559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.958626453207347</v>
+        <v>2.958626453207344</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5535047403519634</v>
@@ -1149,7 +1149,7 @@
         <v>-0.08221130802433885</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1656236086556091</v>
+        <v>0.165623608655609</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.763399177379839</v>
+        <v>3.167299869868037</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.9046053684762492</v>
+        <v>-1.71588855267391</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.773435079613529</v>
+        <v>-7.24704861867201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.291402910732541</v>
+        <v>-5.771325587300131</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1354173114301224</v>
+        <v>0.1585349839760048</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03316184845418431</v>
+        <v>-0.06048700833540196</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2866049352052694</v>
+        <v>-0.2820631764066518</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2304936267405103</v>
+        <v>-0.2341222249308553</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.64119357173256</v>
+        <v>12.38045765442461</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.5684797877212</v>
+        <v>10.53561923941707</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.725928433847866</v>
+        <v>3.759941415423641</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.51776042877035</v>
+        <v>10.05165670090689</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.085244605270167</v>
+        <v>1.033166937431272</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5883541571692402</v>
+        <v>0.6050424989325198</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2179098353283089</v>
+        <v>0.2107425836620276</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9985250233628129</v>
+        <v>0.8902350890785153</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.873113552134633</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.265004483397586</v>
+        <v>4.265004483397592</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4235608767179518</v>
@@ -1249,7 +1249,7 @@
         <v>0.2913094497633801</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2061136183280865</v>
+        <v>0.2061136183280868</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.209245939111732</v>
+        <v>5.249632123146499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.855094353271017</v>
+        <v>4.875583366474679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.900716103503712</v>
+        <v>2.989836628903538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.18908657483586</v>
+        <v>2.058661103262197</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2829566622515963</v>
+        <v>0.2883559026845903</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2213064826782741</v>
+        <v>0.2237969408394011</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1595859282423142</v>
+        <v>0.1649412561218312</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09670508602145916</v>
+        <v>0.0940060370610232</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.348166493555992</v>
+        <v>9.195457372763494</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.009378661235193</v>
+        <v>8.972957281673285</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.708847391879462</v>
+        <v>6.822789861011272</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.242543448486756</v>
+        <v>6.366718529267221</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5730335437210557</v>
+        <v>0.5679897950038182</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4602769850665769</v>
+        <v>0.4585626273401572</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4271863165804918</v>
+        <v>0.4263081408695845</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3150899527127762</v>
+        <v>0.3299528020739426</v>
       </c>
     </row>
     <row r="25">
